--- a/NBAStarShootingVisPrj/data/球员.xlsx
+++ b/NBAStarShootingVisPrj/data/球员.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="308">
   <si>
     <t>BOS    </t>
   </si>
@@ -936,6 +936,18 @@
   </si>
   <si>
     <t>player_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏贺智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +955,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,19 +971,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -986,9 +1025,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1269,3008 +1314,3018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>202738</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>201143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>203109</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>203935</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>203482</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1627759</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>101161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1626179</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>201973</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>201572</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>203930</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>202344</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>1626178</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>1627785</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>203915</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>203120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>200751</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>2546</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>204001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>201565</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>201584</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>1626195</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>203200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>203124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>1627851</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>203496</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>203967</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>203917</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>201945</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>200771</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>1626147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>204456</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>1627789</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>201942</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>200768</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>201586</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>202685</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>202709</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>201960</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>1626181</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>202335</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>200782</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>202710</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>2548</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>202703</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>201577</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>200765</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>1626171</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="20.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>1626170</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>203530</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>1626245</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>2544</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>202681</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="20.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>201567</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="20.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>101114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>2594</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>101112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>202684</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>202697</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="20.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>2210</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>202699</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>202694</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>203484</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>203083</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="20.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>202720</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>202397</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>203382</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>1626169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="20.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>202331</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>201952</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="20.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>1626167</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="20.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>201152</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="20.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>101139</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.25">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>101145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="20.25">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>2744</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="20.25">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>203922</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="20.25">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>201166</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.25">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>202730</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="20.25">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>203507</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="20.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>202328</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="20.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>1627763</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="20.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>203503</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="20.25">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>203521</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.25">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>203089</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>203141</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="20.25">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>1891</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>200794</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="20.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
         <v>203471</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="20.25">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
         <v>203501</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="20.25">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
         <v>2730</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="20.25">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
         <v>101141</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="20.25">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
         <v>203145</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="20.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="3">
         <v>200757</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="20.25">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
         <v>203488</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="20.25">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
         <v>1627752</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="20.25">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
         <v>1627098</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.25">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>202689</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="20.25">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>201587</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="20.25">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
         <v>1626163</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="20.25">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <v>101107</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="20.25">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="3">
         <v>201158</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="20.25">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="3">
         <v>203469</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.25">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="3">
         <v>203087</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="20.25">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="3">
         <v>203077</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="20.25">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="3">
         <v>201609</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="20.25">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="3">
         <v>202355</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="20.25">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="3">
         <v>204020</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="20.25">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
         <v>201949</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="20.25">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="3">
         <v>201961</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="20.25">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="3">
         <v>203585</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="20.25">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
         <v>203186</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="20.25">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="3">
         <v>202337</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="20.25">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="3">
         <v>203095</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.25">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="3">
         <v>202696</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="20.25">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="3">
         <v>203901</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="20.25">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="3">
         <v>203932</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.25">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="3">
         <v>203082</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="20.25">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="3">
         <v>201145</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.25">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="3">
         <v>201571</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="20.25">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="3">
         <v>202687</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.25">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="3">
         <v>1626209</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.25">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="3">
         <v>201228</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.25">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="3">
         <v>202322</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.25">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="3">
         <v>203078</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.25">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="3">
         <v>202693</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="20.25">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="3">
         <v>202711</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.25">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="3">
         <v>203490</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.25">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="3">
         <v>101162</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="20.25">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="3">
         <v>201943</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.25">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="3">
         <v>1626162</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="20.25">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="3">
         <v>201160</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.25">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="3">
         <v>201568</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="20.25">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="3">
         <v>203999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="20.25">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="3">
         <v>201163</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="20.25">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="3">
         <v>203115</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="20.25">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="3">
         <v>203486</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="20.25">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="3">
         <v>1627750</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="20.25">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="3">
         <v>202702</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.25">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="3">
         <v>2749</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="20.25">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="3">
         <v>1627823</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="20.25">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="3">
         <v>1626157</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="20.25">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="3">
         <v>203952</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="20.25">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="3">
         <v>201937</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.25">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="3">
         <v>203476</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="20.25">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="3">
         <v>203498</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="20.25">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="3">
         <v>202357</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="20.25">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="3">
         <v>1627739</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="20.25">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="3">
         <v>1626145</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="20.25">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="3">
         <v>202332</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="20.25">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="3">
         <v>201566</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="20.25">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="3">
         <v>203506</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.25">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="3">
         <v>202683</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.25">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="3">
         <v>203500</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="20.25">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="3">
         <v>201959</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.25">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="3">
         <v>203926</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="20.25">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="3">
         <v>203460</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="20.25">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="3">
         <v>203518</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.25">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="3">
         <v>1627734</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="20.25">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="3">
         <v>203924</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.25">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="3">
         <v>203902</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="20.25">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="3">
         <v>203081</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="20.25">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="3">
         <v>203468</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.25">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="3">
         <v>203459</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.25">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="3">
         <v>203994</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.25">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="3">
         <v>203090</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.25">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="3">
         <v>202323</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.25">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="3">
         <v>202329</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.25">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="3">
         <v>203086</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.25">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="3">
         <v>203943</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.25">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="3">
         <v>202330</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.25">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="3">
         <v>203497</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.25">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="3">
         <v>203918</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.25">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="3">
         <v>2207</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="20.25">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="3">
         <v>204060</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="20.25">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="3">
         <v>203957</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="20.25">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="3">
         <v>1626168</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.25">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="3">
         <v>2564</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.25">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="4">
         <v>201939</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.25">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="4">
         <v>201142</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.25">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="4">
         <v>202691</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.25">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="4">
         <v>203110</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.25">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="4">
         <v>2738</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.25">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="4">
         <v>2440</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.25">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="4">
         <v>203546</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.25">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="4">
         <v>201580</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.25">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="4">
         <v>2585</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="20.25">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="4">
         <v>2733</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="20.25">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="4">
         <v>2561</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="20.25">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="4">
         <v>1627775</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="20.25">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="4">
         <v>201933</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="20.25">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="4">
         <v>101108</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.25">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="4">
         <v>200755</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.25">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="4">
         <v>201599</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.25">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="4">
         <v>2037</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="20.25">
-      <c r="A196" s="1" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="4">
         <v>203085</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="20.25">
-      <c r="A197" s="1" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="4">
         <v>201578</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.25">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="4">
         <v>101109</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.25">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="4">
         <v>201601</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="20.25">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="4">
         <v>202325</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.25">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="4">
         <v>1626156</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.25">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="4">
         <v>203903</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="20.25">
-      <c r="A203" s="1" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="4">
         <v>201156</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="20.25">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="4">
         <v>203944</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="20.25">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="4">
         <v>1627742</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="20.25">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="4">
         <v>1626204</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="20.25">
-      <c r="A207" s="1" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="4">
         <v>204028</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="20.25">
-      <c r="A208" s="1" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="4">
         <v>201147</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="20.25">
-      <c r="A209" s="1" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="4">
         <v>1626164</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="20.25">
-      <c r="A210" s="1" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="4">
         <v>202339</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="20.25">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="4">
         <v>203933</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="20.25">
-      <c r="A212" s="1" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="4">
         <v>1627737</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="20.25">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="4">
         <v>203458</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="20.25">
-      <c r="A214" s="1" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="4">
         <v>1627755</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="20.25">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="4">
         <v>201162</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20.25">
-      <c r="A216" s="1" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="4">
         <v>2571</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="20.25">
-      <c r="A217" s="1" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="4">
         <v>201954</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="20.25">
-      <c r="A218" s="1" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="4">
         <v>1627741</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="20.25">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="4">
         <v>201951</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="20.25">
-      <c r="A220" s="1" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="4">
         <v>201167</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="20.25">
-      <c r="A221" s="1" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="4">
         <v>1626161</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="20.25">
-      <c r="A222" s="1" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="4">
         <v>203463</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="20.25">
-      <c r="A223" s="1" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="4">
         <v>204038</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="20.25">
-      <c r="A224" s="1" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="4">
         <v>202066</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="20.25">
-      <c r="A225" s="1" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="4">
         <v>201229</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="20.25">
-      <c r="A226" s="1" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="4">
         <v>201585</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="20.25">
-      <c r="A227" s="1" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="4">
         <v>203084</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="20.25">
-      <c r="A228" s="1" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="4">
         <v>202083</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="20.25">
-      <c r="A229" s="1" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="4">
         <v>203552</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="20.25">
-      <c r="A230" s="1" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="4">
         <v>2734</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="20.25">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="4">
         <v>203939</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="20.25">
-      <c r="A232" s="1" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="4">
         <v>1627827</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="20.25">
-      <c r="A233" s="1" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="4">
         <v>1626257</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="20.25">
-      <c r="A234" s="1" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="4">
         <v>202732</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="20.25">
-      <c r="A235" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="4">
         <v>201935</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="20.25">
-      <c r="A236" s="1" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="4">
         <v>101150</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="20.25">
-      <c r="A237" s="1" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="4">
         <v>201569</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="20.25">
-      <c r="A238" s="1" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="4">
         <v>201583</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="20.25">
-      <c r="A239" s="1" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="4">
         <v>203991</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="20.25">
-      <c r="A240" s="1" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="4">
         <v>2772</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="20.25">
-      <c r="A241" s="1" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="4">
         <v>201976</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="20.25">
-      <c r="A242" s="1" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="4">
         <v>2403</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="20.25">
-      <c r="A243" s="1" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="4">
         <v>1626149</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="20.25">
-      <c r="A244" s="1" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="4">
         <v>1626155</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="20.25">
-      <c r="A245" s="1" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="4">
         <v>201144</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="20.25">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="4">
         <v>201188</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="20.25">
-      <c r="A247" s="1" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="4">
         <v>2216</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="20.25">
-      <c r="A248" s="1" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="4">
         <v>2754</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="20.25">
-      <c r="A249" s="1" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="4">
         <v>203210</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="20.25">
-      <c r="A250" s="1" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="4">
         <v>203584</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="20.25">
-      <c r="A251" s="1" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="4">
         <v>1713</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="20.25">
-      <c r="A252" s="1" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="4">
         <v>203516</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="20.25">
-      <c r="A253" s="1" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="4">
         <v>1626150</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="20.25">
-      <c r="A254" s="1" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="4">
         <v>203076</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="20.25">
-      <c r="A255" s="1" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="4">
         <v>202326</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="20.25">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="4">
         <v>201950</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="20.25">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="4">
         <v>202734</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="20.25">
-      <c r="A258" s="1" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="4">
         <v>204025</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="20.25">
-      <c r="A259" s="1" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="4">
         <v>203524</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="20.25">
-      <c r="A260" s="1" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="4">
         <v>201967</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="20.25">
-      <c r="A261" s="1" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="4">
         <v>202695</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="20.25">
-      <c r="A262" s="1" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="4">
         <v>200746</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="20.25">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="4">
         <v>2200</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="20.25">
-      <c r="A264" s="1" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="4">
         <v>2225</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="20.25">
-      <c r="A265" s="1" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="4">
         <v>201988</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="20.25">
-      <c r="A266" s="1" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="4">
         <v>1938</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="20.25">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="4">
         <v>201980</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="20.25">
-      <c r="A268" s="1" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="4">
         <v>101135</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="20.25">
-      <c r="A269" s="1" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="4">
         <v>203613</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="20.25">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="4">
         <v>203473</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="20.25">
-      <c r="A271" s="1" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="4">
         <v>202722</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="20.25">
-      <c r="A272" s="1" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="4">
         <v>203937</v>
       </c>
     </row>
